--- a/src/main/resources/template/SKU图片导入模板.xlsx
+++ b/src/main/resources/template/SKU图片导入模板.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -64,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,12 +70,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,63 +393,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>